--- a/biology/Médecine/Pavillon_de_l'oreille_(anatomie_humaine)/Pavillon_de_l'oreille_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Pavillon_de_l'oreille_(anatomie_humaine)/Pavillon_de_l'oreille_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pavillon_de_l%27oreille_(anatomie_humaine)</t>
+          <t>Pavillon_de_l'oreille_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavillon de l'oreille, ou auricule, est la partie visible de l'oreille humaine, à l'extérieur de la tête. Il fait partie de l'oreille externe, qui comprend, outre le pavillon, le conduit auditif externe. C'est une structure lamellaire essentiellement formée d'un cartilage élastique qui lui confère sa forme et sa souplesse. Il a une forme ovalaire à grosse extrémité supérieure, l'axe vertical est dévié de 10° dans le sens antihoraire. La taille moyenne chez l'adulte est de 60  à   65 mm pour la hauteur, et de 25  à   36 mm pour la largeur.
 Pour le pavillon des animaux, voir Pavillon de l'oreille ou l'article principal Oreille.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pavillon_de_l%27oreille_(anatomie_humaine)</t>
+          <t>Pavillon_de_l'oreille_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pavillons sont situés de part et d'autre de la tête, en dessous et en arrière de la région sous-temporale, en avant et en haut de la région sterno-cléido-mastoïdienne.
 </t>
